--- a/biology/Botanique/Lac_du_bois_de_la_Cambre/Lac_du_bois_de_la_Cambre.xlsx
+++ b/biology/Botanique/Lac_du_bois_de_la_Cambre/Lac_du_bois_de_la_Cambre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le lac du bois de la Cambre, établi entre 1863 et 1866, est doté d’une île boisée abritant le Chalet Robinson[1], que l’on atteint à l’aide d’un bac[2]. C'est, avec le chalet, une des deux principales attractions de la deuxième partie du bois de la Cambre[3]. Le tour du lac, qui a la particularité de changer trois fois de nom[4], fait 1 470 mètres.
+Le lac du bois de la Cambre, établi entre 1863 et 1866, est doté d’une île boisée abritant le Chalet Robinson, que l’on atteint à l’aide d’un bac. C'est, avec le chalet, une des deux principales attractions de la deuxième partie du bois de la Cambre. Le tour du lac, qui a la particularité de changer trois fois de nom, fait 1 470 mètres.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lac du bois de la Cambre a été conçu par l'architecte Édouard Keilig (1827-1895). Le choix de l'emplacement fut opportun car il s'agissait d'une étendue suffisamment basse qui permettait de bien répartir l'intérêt de la promenade. Il fut achevé en 1867.
 </t>
